--- a/data/raw data/26abr2017.xlsx
+++ b/data/raw data/26abr2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28960" windowHeight="17980"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>Daniele Kasper</t>
   </si>
   <si>
-    <t>Biofisica</t>
-  </si>
-  <si>
     <t>Vinicius Fortes Farjalla</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Andressa Reis</t>
   </si>
   <si>
-    <t>Juliana da Silva Leal</t>
-  </si>
-  <si>
     <t>Viviane Dib da Silva</t>
   </si>
   <si>
@@ -150,9 +144,6 @@
     <t>Carlos Victor Dourado Batista</t>
   </si>
   <si>
-    <t>Rhuana Cavalcante Paulo</t>
-  </si>
-  <si>
     <t>São Jose</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
     <t>UFMS</t>
   </si>
   <si>
-    <t>Helena Nery Alves Pintos</t>
-  </si>
-  <si>
     <t>Andre Monnerat Lanna</t>
   </si>
   <si>
@@ -219,9 +207,6 @@
     <t>Fernanda Tubenchlak</t>
   </si>
   <si>
-    <t>Marcos Paulo M Jorge</t>
-  </si>
-  <si>
     <t>Licenciatura</t>
   </si>
   <si>
@@ -246,15 +231,9 @@
     <t>Luara Tourinho</t>
   </si>
   <si>
-    <t>Gabriel Barros</t>
-  </si>
-  <si>
     <t>LBTP</t>
   </si>
   <si>
-    <t>Mariana Vale</t>
-  </si>
-  <si>
     <t>Jean R D Guimaraes</t>
   </si>
   <si>
@@ -265,6 +244,27 @@
   </si>
   <si>
     <t>Mes</t>
+  </si>
+  <si>
+    <t>Radioisotopos</t>
+  </si>
+  <si>
+    <t>Gabriel Barros G de Souza</t>
+  </si>
+  <si>
+    <t>Helena Nery Alves Pinto</t>
+  </si>
+  <si>
+    <t>Juliana Leal</t>
+  </si>
+  <si>
+    <t>Marcos Paulo Maia Jorge</t>
+  </si>
+  <si>
+    <t>Mariana M Vale</t>
+  </si>
+  <si>
+    <t>Rhuanna Cavalcante Paulo</t>
   </si>
 </sst>
 </file>
@@ -321,8 +321,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -335,9 +343,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,7 +635,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -646,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -655,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -753,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1">
         <v>26</v>
@@ -767,7 +783,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -793,7 +809,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -819,7 +835,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
@@ -845,7 +861,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -871,7 +887,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -897,7 +913,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -909,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1">
         <v>26</v>
@@ -923,7 +939,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -949,16 +965,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -975,7 +991,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
@@ -1053,7 +1069,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -1065,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1">
         <v>26</v>
@@ -1079,7 +1095,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -1105,7 +1121,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -1131,7 +1147,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
@@ -1157,7 +1173,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -1183,16 +1199,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>28</v>
@@ -1209,7 +1225,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -1221,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1">
         <v>26</v>
@@ -1235,7 +1251,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
@@ -1287,7 +1303,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
@@ -1299,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F26" s="1">
         <v>26</v>
@@ -1313,7 +1329,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>29</v>
@@ -1339,7 +1355,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
@@ -1351,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1">
         <v>26</v>
@@ -1365,7 +1381,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
@@ -1377,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F29" s="1">
         <v>26</v>
@@ -1391,7 +1407,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
@@ -1403,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F30" s="1">
         <v>26</v>
@@ -1417,7 +1433,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>17</v>
@@ -1469,7 +1485,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
@@ -1495,7 +1511,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>29</v>
@@ -1507,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" s="1">
         <v>26</v>
@@ -1521,13 +1537,13 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
@@ -1547,7 +1563,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>29</v>
@@ -1559,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F36" s="1">
         <v>26</v>
@@ -1573,7 +1589,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>29</v>
@@ -1651,7 +1667,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>29</v>
@@ -1663,7 +1679,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F40" s="1">
         <v>26</v>
@@ -1677,7 +1693,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>29</v>
@@ -1689,7 +1705,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F41" s="1">
         <v>26</v>
@@ -1703,7 +1719,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>17</v>
@@ -1729,7 +1745,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>17</v>
@@ -1741,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F43" s="1">
         <v>26</v>
@@ -1755,7 +1771,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>19</v>
@@ -1781,19 +1797,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F45" s="1">
         <v>26</v>
